--- a/biology/Zoologie/Fuligule_milouinan/Fuligule_milouinan.xlsx
+++ b/biology/Zoologie/Fuligule_milouinan/Fuligule_milouinan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aythya marila
 Le Fuligule milouinan (Aythya marila) est une espèce de palmipèdes appartenant à la famille des Anatidae. C'est un canard plongeur de taille moyenne, plus grand que son proche parent, le Fuligule à tête noire (Aythya affinis).  
@@ -512,16 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le Fuligule milouinan[1],[2] adulte a une longueur de 39 à 56 cm, une envergure de 71 à 84 cm, et pèse entre 726 et 1 360 g. Dimorphisme sexuel bien visible.
-Aspect du male
-Les mâles sont plus grands et ont une tête plus ronde que les femelles; ils ont un bec gris-bleu clair dont l'onglet est noir, et des yeux jaune. La tête est noir avec des reflets vert, la poitrine est noire, le ventre et les flancs blancs, et une barre alaire blanche. Le dos est blanc finement vermiculé de gris et la queue est noire. 
-En vol, les mâles ont le dessus du corps et l'avant de l'aile gris contrastant avec le croupion et l'arrière du corps noirâtres. Sur la face supérieure des ailes, les rémiges primaires et secondaires possèdent une large bande blanche et sont terminées de noir sur le bord de fuite. Les primaires externes sont noirâtres. Le dessous des ailes est blanchâtre. 
-Aspect de la femelle
-Les femelles adultes ont un corps brun mat avec les flancs gris-brun plus clairs et un dos plus foncé avec quelques vermiculations grisâtres. Elles ont une large et évidente zone blanche qui entoure la racine du bec et remonte jusqu'au front. Elles ont un bec, plus pâle que celui du mâle. En plumage d'été, elles ont également une tache auriculaire claire. 
-Aspect des juvéniles
-Le juvénile ressemble à la femelle adulte mais avec moins de blanc près du bec, et le dessous plus clair.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fuligule milouinan, adulte a une longueur de 39 à 56 cm, une envergure de 71 à 84 cm, et pèse entre 726 et 1 360 g. Dimorphisme sexuel bien visible.
+</t>
         </is>
       </c>
     </row>
@@ -546,86 +554,351 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aspect du male</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles sont plus grands et ont une tête plus ronde que les femelles; ils ont un bec gris-bleu clair dont l'onglet est noir, et des yeux jaune. La tête est noir avec des reflets vert, la poitrine est noire, le ventre et les flancs blancs, et une barre alaire blanche. Le dos est blanc finement vermiculé de gris et la queue est noire. 
+En vol, les mâles ont le dessus du corps et l'avant de l'aile gris contrastant avec le croupion et l'arrière du corps noirâtres. Sur la face supérieure des ailes, les rémiges primaires et secondaires possèdent une large bande blanche et sont terminées de noir sur le bord de fuite. Les primaires externes sont noirâtres. Le dessous des ailes est blanchâtre. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aspect de la femelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles adultes ont un corps brun mat avec les flancs gris-brun plus clairs et un dos plus foncé avec quelques vermiculations grisâtres. Elles ont une large et évidente zone blanche qui entoure la racine du bec et remonte jusqu'au front. Elles ont un bec, plus pâle que celui du mâle. En plumage d'été, elles ont également une tache auriculaire claire. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aspect des juvéniles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Le juvénile ressemble à la femelle adulte mais avec moins de blanc près du bec, et le dessous plus clair.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Alimentation
-Le Fuligule milouinan mange des mollusques, plantes et insectes aquatiques, qu'il obtient en plongeant. 
-Comportement social
-Ces animaux forment de larges groupes, appelés radeaux, pouvant regrouper plusieurs milliers d'individus. 
-Reproduction
-Le fuligule milouinan niche près de l'eau, typiquement sur les îles des lacs nordiques ou sur des radeaux de végétaux flottants.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fuligule milouinan mange des mollusques, plantes et insectes aquatiques, qu'il obtient en plongeant. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comportement social</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces animaux forment de larges groupes, appelés radeaux, pouvant regrouper plusieurs milliers d'individus. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fuligule milouinan niche près de l'eau, typiquement sur les îles des lacs nordiques ou sur des radeaux de végétaux flottants.
 Les mâles ont une parade nuptiale complexe qui se déroule pendant la migration de printemps et se conclut par la formation de couples monogames. 
 Les femelles pondent six à neuf œufs olive-crème. Les œufs éclosent après 24 à 28 jours d'incubation. Les canetons sont nidifuges, et donc couverts de duvet, sont capables de suivre leur mère dans sa recherche de nourriture immédiatement après l'éclosion.
 Ils deviennent adultes, c'est-à-dire capables de se reproduire, à l'âge de deux ans, mais commencent à construire des nids la première année. 
-Menaces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Menaces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Leur principale menace est le développement humain, bien qu'ils soient la proie de rapaces nocturnes, mouffettes, ratons laveurs, renards, coyotes, et chassés par l'homme. Les populations de Fuligule milouinan sont en déclin depuis les années 1980. Cependant, cette espèce est toujours considérée, de manière globale, comme une espèce de préoccupation mineure par l'UICN mais vulnérable au niveau européen.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fuligule_milouinan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fuligule_milouinan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant les mois d'été, il se reproduit en Alaska, au nord du Canada, en Sibérie, en Islande et en Scandinavie. En hiver, il migre au sud vers les côtes d'Amérique du Nord, d'Europe et du Japon.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fuligule_milouinan</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fuligule_milouinan</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Taxinomie
-Le Fuligule milouinan a été décrit pour la première fois par Carl Linné en 1761 sous le nom binominal Anas marila. L'espèce est maintenant placée dans le genre Aythya qui a été créé pour le Fuligule milouinan par le zoologiste allemand Friedrich Boie en 1822.
-Sous-espèces
-D'après la classification de référence (version 12.1, 2022) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fuligule milouinan a été décrit pour la première fois par Carl Linné en 1761 sous le nom binominal Anas marila. L'espèce est maintenant placée dans le genre Aythya qui a été créé pour le Fuligule milouinan par le zoologiste allemand Friedrich Boie en 1822.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_milouinan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 12.1, 2022) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
 Aythya marila marila (Linné), 1761 ;
 Aythya marila nearctica Stejneger, 1885.
 Les mâles d'Amérique, sous-espèce Aythya marila nearctica, se distinguent de ceux d'Europe et d'Asie, sous-espèce nominale Aythya marila marila, par des vermiculations plus foncées sur le manteau et les scapulaires. Les femelles des deux sous-espèces ne peuvent être distinguées les unes des autres.
